--- a/AutoRecorder/AutoRecorder/bin/Debug/Powelton_temp.xlsx
+++ b/AutoRecorder/AutoRecorder/bin/Debug/Powelton_temp.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
   <si>
     <t>Address</t>
   </si>
@@ -297,6 +297,93 @@
     <t>Baring St.</t>
   </si>
   <si>
+    <t>["METROPOLITIAN BAPT","CHURCH"]</t>
+  </si>
+  <si>
+    <t>"3500 BARING ST"</t>
+  </si>
+  <si>
+    <t>"19104-2417"</t>
+  </si>
+  <si>
+    <t>"RSA3"</t>
+  </si>
+  <si>
+    <t>["BRACK MARK L"]</t>
+  </si>
+  <si>
+    <t>"3501 BARING ST"</t>
+  </si>
+  <si>
+    <t>"19104-2416"</t>
+  </si>
+  <si>
+    <t>"RTA1"</t>
+  </si>
+  <si>
+    <t>["PHILLIPS JOHN J H III","HEALY CAROLYN"]</t>
+  </si>
+  <si>
+    <t>"3503 BARING ST"</t>
+  </si>
+  <si>
+    <t>"SWC 35TH &amp; BARING ST"</t>
+  </si>
+  <si>
+    <t>["WHITE DONALD","JOAN I"]</t>
+  </si>
+  <si>
+    <t>"3505 BARING ST"</t>
+  </si>
+  <si>
+    <t>["GOLDSTEIN CHAIM","GOLDSTEIN MOUSSIA"]</t>
+  </si>
+  <si>
+    <t>"3507 BARING ST"</t>
+  </si>
+  <si>
+    <t>["METROPOLITIAN BAPT CHURCH"]</t>
+  </si>
+  <si>
+    <t>["SARAH J BERNARD LIVING TR"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"SUITE 202  101 W MAIN ST"</t>
+  </si>
+  <si>
+    <t>"MOORESTOWN"</t>
+  </si>
+  <si>
+    <t>"08057"</t>
+  </si>
+  <si>
+    <t>["JMC BUILDING LLC"]</t>
+  </si>
+  <si>
+    <t>"3510 BARING ST"</t>
+  </si>
+  <si>
+    <t>["UC POWELTON PARTNERS LP"]</t>
+  </si>
+  <si>
+    <t>"1616 WALNUT ST STE 2400"</t>
+  </si>
+  <si>
+    <t>"19103"</t>
+  </si>
+  <si>
+    <t>["F C BARSCHOW &amp; SONS INC"]</t>
+  </si>
+  <si>
+    <t>"PO BOX 418"</t>
+  </si>
+  <si>
+    <t>"LYNBROOK"</t>
+  </si>
+  <si>
+    <t>"11563"</t>
+  </si>
+  <si>
     <t>Pearl St.</t>
   </si>
   <si>
@@ -327,28 +414,847 @@
     <t>3501-15</t>
   </si>
   <si>
-    <t>No</t>
+    <t>["FERNANDEZ RICHARD R","FERNANDEZ GLADYS V"]</t>
+  </si>
+  <si>
+    <t>"3400 BARING ST"</t>
+  </si>
+  <si>
+    <t>"19104-2415"</t>
+  </si>
+  <si>
+    <t>["YOUTH SERVICE INC"]</t>
+  </si>
+  <si>
+    <t>"410 N 34TH ST"</t>
+  </si>
+  <si>
+    <t>"19104-2453"</t>
+  </si>
+  <si>
+    <t>["DREXEL EQUITIES L L C"]</t>
+  </si>
+  <si>
+    <t>"130 BAINBRIDGE ST"</t>
+  </si>
+  <si>
+    <t>"19147"</t>
+  </si>
+  <si>
+    <t>["HOFMANN JENNIFER MARIE"]</t>
+  </si>
+  <si>
+    <t>"3404 BARING ST"</t>
+  </si>
+  <si>
+    <t>"191042415"</t>
+  </si>
+  <si>
+    <t>["STEEGE PAUL T","LOGAN KATE"]</t>
+  </si>
+  <si>
+    <t>"3405 BARING ST"</t>
+  </si>
+  <si>
+    <t>"19104-2414"</t>
+  </si>
+  <si>
+    <t>["JOHN D TAYLOR","MARILYNN"]</t>
+  </si>
+  <si>
+    <t>"3406 BARING ST"</t>
+  </si>
+  <si>
+    <t>["DOMINICK ANTHONY N","DOMINICK ROBIN H"]</t>
+  </si>
+  <si>
+    <t>"3407 BARING ST"</t>
+  </si>
+  <si>
+    <t>["BAUMANN WILLIAM","ELIZABETH"]</t>
+  </si>
+  <si>
+    <t>"407 N 33RD ST"</t>
+  </si>
+  <si>
+    <t>"19104-2526"</t>
+  </si>
+  <si>
+    <t>["SCHWARTZ SHELDON"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"SUITE 2  428 N 34TH ST"</t>
+  </si>
+  <si>
+    <t>"19104-2447"</t>
+  </si>
+  <si>
+    <t>["BAUMANN WILLIAM C","ELIZABETH C"]</t>
+  </si>
+  <si>
+    <t>["CLARENCE V WILSON JR"]</t>
+  </si>
+  <si>
+    <t>"3411 BARING ST"</t>
+  </si>
+  <si>
+    <t>["EELLS JONATHAN A","SIMS DAVID W"]</t>
+  </si>
+  <si>
+    <t>"3412 BARING ST"</t>
+  </si>
+  <si>
+    <t>["SIMON ELAINE","CRAWFORD DAVID"]</t>
+  </si>
+  <si>
+    <t>"3413 BARING ST"</t>
+  </si>
+  <si>
+    <t>["TONG JOHNNY","TONG SIU JING"]</t>
+  </si>
+  <si>
+    <t>"6930 AUTUMN LAKE TRL"</t>
+  </si>
+  <si>
+    <t>"HIXSON"</t>
+  </si>
+  <si>
+    <t>"37343"</t>
+  </si>
+  <si>
+    <t>["SARLO FRANK","RESNICK MICHAEL"]</t>
+  </si>
+  <si>
+    <t>"3415 BARING ST"</t>
+  </si>
+  <si>
+    <t>["ROOMET ROBERT"]</t>
+  </si>
+  <si>
+    <t>"3416 BARING ST"</t>
+  </si>
+  <si>
+    <t>["JACKSON WILLIAM A","CRAORD JUNE W"]</t>
+  </si>
+  <si>
+    <t>"3417 BARING ST"</t>
+  </si>
+  <si>
+    <t>["3418 BARING ASSOC"]</t>
+  </si>
+  <si>
+    <t>"19104-2726"</t>
+  </si>
+  <si>
+    <t>["VALMAY INVESTMENT GROUP L"]</t>
+  </si>
+  <si>
+    <t>"531 BENFOREST DR"</t>
+  </si>
+  <si>
+    <t>"SEVERNA PARK"</t>
+  </si>
+  <si>
+    <t>"21146"</t>
+  </si>
+  <si>
+    <t>["BEEHIVE ENTERPRISES INC"]</t>
+  </si>
+  <si>
+    <t>"3300 BARING ST"</t>
+  </si>
+  <si>
+    <t>"19104-2529"</t>
+  </si>
+  <si>
+    <t>["LAGIOCONDA UC LLC"]</t>
+  </si>
+  <si>
+    <t>"3301 BARING ST"</t>
+  </si>
+  <si>
+    <t>"19104-2528"</t>
+  </si>
+  <si>
+    <t>["LJACHIN OLEH","HIONA VIVIAN"]</t>
+  </si>
+  <si>
+    <t>"3302 BARING ST"</t>
+  </si>
+  <si>
+    <t>["YAFFE ROY","YAFFE HOPE"]</t>
+  </si>
+  <si>
+    <t>"3304 BARING ST"</t>
+  </si>
+  <si>
+    <t>["WEINER JOAN L"]</t>
+  </si>
+  <si>
+    <t>"3305 BARING ST"</t>
+  </si>
+  <si>
+    <t>["THOMPSON BRENDA ELIZABETH"]</t>
+  </si>
+  <si>
+    <t>"3306 BARING ST"</t>
+  </si>
+  <si>
+    <t>["FINNEY CHARLES"]</t>
+  </si>
+  <si>
+    <t>"3308 BARING ST"</t>
+  </si>
+  <si>
+    <t>"191042529"</t>
+  </si>
+  <si>
+    <t>["STIFEL NELL W"]</t>
+  </si>
+  <si>
+    <t>"3309 BARING ST"</t>
+  </si>
+  <si>
+    <t>["COOVER RODERICK L","DES GACHONS CATHERINE PEY"]</t>
+  </si>
+  <si>
+    <t>"3310 BARING ST"</t>
+  </si>
+  <si>
+    <t>["TILLEY JON PETER","TILLEY MARY ELIZABETH"]</t>
+  </si>
+  <si>
+    <t>"3311 BARING ST"</t>
+  </si>
+  <si>
+    <t>["MARTELLI MATTHEW P","MARTELLI VICTORIA"]</t>
+  </si>
+  <si>
+    <t>"3313 BARING ST"</t>
+  </si>
+  <si>
+    <t>["YANOVIAK KENNETH J","WISE MARGARET"]</t>
+  </si>
+  <si>
+    <t>"3315 BARING ST"</t>
+  </si>
+  <si>
+    <t>["THOMPSON SANDRA L","BARANOWSKI REBECCA"]</t>
+  </si>
+  <si>
+    <t>"3317 BARING ST"</t>
+  </si>
+  <si>
+    <t>["CHUNG SHAN","CHUNG WEN-LI"]</t>
+  </si>
+  <si>
+    <t>"3206 BARING ST"</t>
+  </si>
+  <si>
+    <t>"19104-2511"</t>
+  </si>
+  <si>
+    <t>["VETERANS GROUP"]</t>
+  </si>
+  <si>
+    <t>"3209 BARING ST"</t>
+  </si>
+  <si>
+    <t>"19104-2510"</t>
+  </si>
+  <si>
+    <t>"3211 BARING ST"</t>
+  </si>
+  <si>
+    <t>["VRESILOVIC EDWARD J","KELLY F"]</t>
+  </si>
+  <si>
+    <t>"1946 PINE DR"</t>
+  </si>
+  <si>
+    <t>"LANCASTER"</t>
+  </si>
+  <si>
+    <t>"17601-5541"</t>
   </si>
   <si>
     <t>3200-04</t>
   </si>
   <si>
+    <t>["EAST BARING ASSOCIATES LL"]</t>
+  </si>
+  <si>
+    <t>"3205 BARING ST"</t>
+  </si>
+  <si>
+    <t>["SCHWARTZ SHELDON E"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"C\/O MARC SCHWARTZ  3816 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>"19104-2316"</t>
+  </si>
+  <si>
+    <t>["WICKREMA HARITH"]</t>
+  </si>
+  <si>
+    <t>"29 EASTON RD"</t>
+  </si>
+  <si>
+    <t>"WILLOW GROVE"</t>
+  </si>
+  <si>
+    <t>"19090"</t>
+  </si>
+  <si>
     <t>3212-14</t>
   </si>
   <si>
+    <t>["RESOURCES FOR HUMAN DEVEL"]</t>
+  </si>
+  <si>
+    <t>"PO BOX 34079"</t>
+  </si>
+  <si>
+    <t>"19101-4079"</t>
+  </si>
+  <si>
+    <t>["ALMINANA JOSE M","LIPPES B FREDDA"]</t>
+  </si>
+  <si>
+    <t>["GARDINER ANTOINE"]</t>
+  </si>
+  <si>
+    <t>"701 WOODFIELD RD"</t>
+  </si>
+  <si>
+    <t>"VILLANOVA"</t>
+  </si>
+  <si>
+    <t>"19085"</t>
+  </si>
+  <si>
+    <t>["COHEN ERIC M","POMERANTZ ANNE J"]</t>
+  </si>
+  <si>
+    <t>"3502 SPRING GARDEN ST"</t>
+  </si>
+  <si>
+    <t>"19104-2408"</t>
+  </si>
+  <si>
+    <t>["806 LLC"]</t>
+  </si>
+  <si>
+    <t>"3601 SPRING GARDEN ST"</t>
+  </si>
+  <si>
+    <t>["BRINTNALL SONYA","POWERS CHRISTOPHER M"]</t>
+  </si>
+  <si>
+    <t>"3512 SPRING GARDEN ST"</t>
+  </si>
+  <si>
+    <t>["SHRAIM RAMY"]</t>
+  </si>
+  <si>
+    <t>"PO BOX 42613"</t>
+  </si>
+  <si>
+    <t>"19101"</t>
+  </si>
+  <si>
+    <t>["LE THOMAS HAI","NGUYEN LE THI"]</t>
+  </si>
+  <si>
+    <t>"7101 HAZEL AVE"</t>
+  </si>
+  <si>
+    <t>"UPPER DARBY"</t>
+  </si>
+  <si>
+    <t>"19082"</t>
+  </si>
+  <si>
     <t>3514-16</t>
   </si>
   <si>
+    <t>["DONATUCCI THOMAS","JEANETTE"]</t>
+  </si>
+  <si>
+    <t>"1901 WASHINGTON AVE"</t>
+  </si>
+  <si>
+    <t>"19146-2831"</t>
+  </si>
+  <si>
     <t>Hamilton St.</t>
   </si>
   <si>
+    <t>["FEDERAL REALTY","DEVELOPMENT LP"]</t>
+  </si>
+  <si>
+    <t>"2405 FEDERAL ST"</t>
+  </si>
+  <si>
+    <t>"19145"</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>["FEDERAL REALTY DEVELOPMEN"]</t>
+  </si>
+  <si>
+    <t>["3206 HAMILTON ASSOC"]</t>
+  </si>
+  <si>
+    <t>"335 KINGS CROFT"</t>
+  </si>
+  <si>
+    <t>"CHERRY HILL"</t>
+  </si>
+  <si>
+    <t>"08034-1102"</t>
+  </si>
+  <si>
+    <t>["BRADLEY K SHEEKS"]</t>
+  </si>
+  <si>
+    <t>"3208 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>"19104-2517"</t>
+  </si>
+  <si>
+    <t>["HAQ SYED NOMANUL"]</t>
+  </si>
+  <si>
+    <t>"3212 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["HART JOHN"]</t>
+  </si>
+  <si>
+    <t>"3213 HAVERFORD AVE"</t>
+  </si>
+  <si>
+    <t>"19104-2018"</t>
+  </si>
+  <si>
+    <t>["SAMBOLIN DAVID"]</t>
+  </si>
+  <si>
+    <t>"3214 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["SOLARZ DAVID","LUK JANELLE"]</t>
+  </si>
+  <si>
+    <t>"11 PUTNAM RD"</t>
+  </si>
+  <si>
+    <t>"SCARSDALE"</t>
+  </si>
+  <si>
+    <t>"10583"</t>
+  </si>
+  <si>
+    <t>["CAVENDER WILLIAM RYAN"]</t>
+  </si>
+  <si>
+    <t>"3217 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>"191042516"</t>
+  </si>
+  <si>
+    <t>["COZE PROPERTY CORPORATION"]</t>
+  </si>
+  <si>
+    <t>"201 N 8TH ST APT 508"</t>
+  </si>
+  <si>
+    <t>"19106"</t>
+  </si>
+  <si>
+    <t>["GYULAI LASZLO","GYULAI MARGARET B"]</t>
+  </si>
+  <si>
+    <t>"3301 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>"19104-2530"</t>
+  </si>
+  <si>
+    <t>["SUDOFSKY SANDRA STEES","SUDOFSKY KYRA ANASTASIA"]</t>
+  </si>
+  <si>
+    <t>"3302 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>"19104-2531"</t>
+  </si>
+  <si>
+    <t>["BENGSTON-ROCKETT SHEVON D","BENGSTON BRIAN EARL"]</t>
+  </si>
+  <si>
+    <t>"3304 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["SAFER DANIEL","MAUSNER RACHEL H\/W"]</t>
+  </si>
+  <si>
+    <t>"3305 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["BERNS ANDREW","ZEPEDA MARA"]</t>
+  </si>
+  <si>
+    <t>"3306 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["ISEN NATHAN D","ISEN LESLIE BERMAN"]</t>
+  </si>
+  <si>
+    <t>"430 DEVEREUX DR"</t>
+  </si>
+  <si>
+    <t>["CRAMER MICHAEL","PARKHOUSE KAELA"]</t>
+  </si>
+  <si>
+    <t>"3309 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["ABA REAL ESTATE 2 LP"]</t>
+  </si>
+  <si>
+    <t>"1405 DRESHERTOWN RD BOX 4"</t>
+  </si>
+  <si>
+    <t>"DRESHER"</t>
+  </si>
+  <si>
+    <t>"19025"</t>
+  </si>
+  <si>
+    <t>["GIBSON MALVERSE JR","GIBSON MALVERSE III"]</t>
+  </si>
+  <si>
+    <t>"3319 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>"191042530"</t>
+  </si>
+  <si>
+    <t>["HERBERT SMITH S\/M"]</t>
+  </si>
+  <si>
+    <t>"3320 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["MASON MARY A","MASON RAYFIELD"]</t>
+  </si>
+  <si>
+    <t>"3321 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["PATRICIA GOODMAN"]</t>
+  </si>
+  <si>
+    <t>"3322 HAMILTON ST"</t>
+  </si>
+  <si>
     <t>3308-10</t>
   </si>
   <si>
+    <t>["HAMILTON STREET LLC"]</t>
+  </si>
+  <si>
+    <t>"130 COLFAX RD"</t>
+  </si>
+  <si>
+    <t>"HAVERTOWN"</t>
+  </si>
+  <si>
+    <t>"19083"</t>
+  </si>
+  <si>
     <t>3312-18</t>
   </si>
   <si>
+    <t>["HAMILTON STREET APARTMENT"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"13TH FLOOR  1600 MARKET ST"</t>
+  </si>
+  <si>
+    <t>"19103-7213"</t>
+  </si>
+  <si>
+    <t>["H &amp; L HUYNH LLC"]</t>
+  </si>
+  <si>
+    <t>"1000 S 8TH ST"</t>
+  </si>
+  <si>
+    <t>["WEI HUAFENG","WEI BETTY B"]</t>
+  </si>
+  <si>
+    <t>"132 LUCERNE BLVD"</t>
+  </si>
+  <si>
+    <t>"08003-5114"</t>
+  </si>
+  <si>
+    <t>["BIOND LAWRENCE J","BIOND HELEN"]</t>
+  </si>
+  <si>
+    <t>"3404 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>"19104-2419"</t>
+  </si>
+  <si>
+    <t>["BIOND LAWRENCE J"]</t>
+  </si>
+  <si>
+    <t>"3406 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["FAULKNER KAREN"]</t>
+  </si>
+  <si>
+    <t>"3408 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["BRINTNALL DOUGLAS E","NICOLINI PIA"]</t>
+  </si>
+  <si>
+    <t>["LACHI DAVID T","LACHI ALICIA M"]</t>
+  </si>
+  <si>
+    <t>"3617 POWELTON AVE"</t>
+  </si>
+  <si>
+    <t>"19104-2340"</t>
+  </si>
+  <si>
+    <t>["HOWARD DAVID D","HOWARD KARLA"]</t>
+  </si>
+  <si>
+    <t>"3411 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["SMITH TRACY L","BARAYUGA MINERVA"]</t>
+  </si>
+  <si>
+    <t>"1204 LIMBERLOST LN"</t>
+  </si>
+  <si>
+    <t>"GLADWYNE"</t>
+  </si>
+  <si>
+    <t>"19035"</t>
+  </si>
+  <si>
+    <t>["LANDER ELAINE","WING ROGER"]</t>
+  </si>
+  <si>
+    <t>"3413 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["CALEB MAE H"]</t>
+  </si>
+  <si>
+    <t>"501 ELM AVE"</t>
+  </si>
+  <si>
+    <t>"SWARTHMORE"</t>
+  </si>
+  <si>
+    <t>"19081"</t>
+  </si>
+  <si>
+    <t>["GREENWELL PAULETTE","MEASLEY SCOTT"]</t>
+  </si>
+  <si>
+    <t>"3416 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["CAMERON MAURICE S","SABRA"]</t>
+  </si>
+  <si>
+    <t>"3417 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["CULHANE JOHN G","GIRASOLE DAVID"]</t>
+  </si>
+  <si>
+    <t>"3418 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["WEESNER ANNA","SCHLESINGER JOHN"]</t>
+  </si>
+  <si>
+    <t>"3419 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["NICHOLAS J GONEDES"]</t>
+  </si>
+  <si>
+    <t>"3420 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["GUNN PAMELA R"]</t>
+  </si>
+  <si>
+    <t>"3422 HAMILTON ST"</t>
+  </si>
+  <si>
     <t>3405-07</t>
+  </si>
+  <si>
+    <t>["DILL JAMES A"]</t>
+  </si>
+  <si>
+    <t>"3405-07 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"3RD FLOOR  3201 ARCH ST"</t>
+  </si>
+  <si>
+    <t>"19104-2711"</t>
+  </si>
+  <si>
+    <t>["DRAGON HOUSE DEVELOPMENT"]</t>
+  </si>
+  <si>
+    <t>"3500 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>"19104-2421"</t>
+  </si>
+  <si>
+    <t>["WILLENBRING JANE K","MALHOTRA NEIL A"]</t>
+  </si>
+  <si>
+    <t>"3501 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>"19104-2420"</t>
+  </si>
+  <si>
+    <t>["POULIN GEORGE A","ROECKLE KEITH T"]</t>
+  </si>
+  <si>
+    <t>"3502 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["KAISER ARTHUR","M CONRAD LOTZ"]</t>
+  </si>
+  <si>
+    <t>"3503 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["BECKER LANCE B","RHODES KARIN V"]</t>
+  </si>
+  <si>
+    <t>"3504 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["BIANCO BRIDGITTE"]</t>
+  </si>
+  <si>
+    <t>"3505 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["BECKER LANCE","RHODES KARIN"]</t>
+  </si>
+  <si>
+    <t>"3506 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["GONEDES NICHOLAS J"]</t>
+  </si>
+  <si>
+    <t>["ISEN NATHAN D","BERMAN LESLIE"]</t>
+  </si>
+  <si>
+    <t>"430 DEVEREAUX AVE"</t>
+  </si>
+  <si>
+    <t>["ROTHFUSS JOHN A"]</t>
+  </si>
+  <si>
+    <t>"3509 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["MARKER CAMILLE W"]</t>
+  </si>
+  <si>
+    <t>"3709 BARING ST"</t>
+  </si>
+  <si>
+    <t>"19104-2305"</t>
+  </si>
+  <si>
+    <t>["YOUNG ROBERTA E"]</t>
+  </si>
+  <si>
+    <t>"3511 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["DARKIN MARY P"]</t>
+  </si>
+  <si>
+    <t>"3513 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["3515 HAMILTON ST PRTNRSHP"]</t>
+  </si>
+  <si>
+    <t>["SCHREINER DAVID","KING CAROLYN"]</t>
+  </si>
+  <si>
+    <t>"3517 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["MASON MARSHA IRONS","MASON DARRON T"]</t>
+  </si>
+  <si>
+    <t>"3519 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["ZHENG LI"]</t>
+  </si>
+  <si>
+    <t>"121 COUNTRY CLUB DR"</t>
+  </si>
+  <si>
+    <t>["BRUCK JOSHUA","BRUCK SARAHLYN"]</t>
+  </si>
+  <si>
+    <t>"3523 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["WEESNER ANNA"]</t>
+  </si>
+  <si>
+    <t>"3525 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t>["DUGAN BENJAMIN W","JOHNSON JENNIFER A"]</t>
+  </si>
+  <si>
+    <t>"3527 HAMILTON ST"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LOWER LEVEL  3201 ARCH ST"</t>
+  </si>
+  <si>
+    <t>"CMX3"</t>
   </si>
   <si>
     <t>Winter St.</t>
@@ -1213,6 +2119,33 @@
       <c r="C2" s="0">
         <v>241168700</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0">
+        <v>42500</v>
+      </c>
+      <c r="I2" s="0">
+        <v>42500</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>390</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1302,6 +2235,33 @@
       <c r="C2" s="10">
         <v>241161500</v>
       </c>
+      <c r="D2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="10">
+        <v>505800</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="10">
@@ -1313,6 +2273,33 @@
       <c r="C3" s="10">
         <v>881429100</v>
       </c>
+      <c r="D3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="10">
+        <v>504000</v>
+      </c>
+      <c r="I3" s="8">
+        <v>70254</v>
+      </c>
+      <c r="J3" s="9">
+        <v>433746</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="10">
@@ -1324,6 +2311,33 @@
       <c r="C4" s="10">
         <v>881429200</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="10">
+        <v>182000</v>
+      </c>
+      <c r="I4" s="8">
+        <v>70254</v>
+      </c>
+      <c r="J4" s="9">
+        <v>111746</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="10">
@@ -1335,16 +2349,70 @@
       <c r="C5" s="10">
         <v>241169215</v>
       </c>
+      <c r="D5" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="10">
+        <v>384600</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="10">
         <v>241161105</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10">
+        <v>136600</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1357,6 +2425,33 @@
       <c r="C7" s="10">
         <v>241161600</v>
       </c>
+      <c r="D7" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="10">
+        <v>367500</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="10">
@@ -1368,16 +2463,70 @@
       <c r="C8" s="10">
         <v>241161700</v>
       </c>
+      <c r="D8" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="10">
+        <v>358700</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="10">
         <v>881429300</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="10">
+        <v>252000</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -1389,6 +2538,33 @@
       </c>
       <c r="C10" s="10">
         <v>241169210</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="10">
+        <v>384600</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>24000</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +2659,31 @@
         <v>883773500</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>158</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="10">
+        <v>355300</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -1497,7 +2697,31 @@
         <v>881811700</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>81</v>
+        <v>161</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="10">
+        <v>756000</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -1511,7 +2735,31 @@
         <v>241162100</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="10">
+        <v>428700</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -1525,7 +2773,31 @@
         <v>241162200</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="10">
+        <v>324800</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>15000</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1539,7 +2811,31 @@
         <v>241169800</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="10">
+        <v>420000</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>10200</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1553,7 +2849,31 @@
         <v>241162300</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="10">
+        <v>368200</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>29700</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -1567,7 +2887,31 @@
         <v>241162400</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>81</v>
+        <v>172</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="10">
+        <v>440100</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1581,7 +2925,31 @@
         <v>241169900</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="10">
+        <v>367600</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>6000</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -1595,7 +2963,31 @@
         <v>241162500</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="10">
+        <v>424500</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>26400</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -1609,7 +3001,31 @@
         <v>241170010</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>81</v>
+        <v>179</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="10">
+        <v>398300</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -1623,7 +3039,31 @@
         <v>241170110</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>81</v>
+        <v>181</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="10">
+        <v>667300</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>572210</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -1637,7 +3077,31 @@
         <v>241170200</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>81</v>
+        <v>183</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="10">
+        <v>344400</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>112200</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1651,7 +3115,31 @@
         <v>241170300</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="10">
+        <v>339500</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1745,6 +3233,33 @@
       <c r="C2" s="10">
         <v>241162700</v>
       </c>
+      <c r="D2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="10">
+        <v>416100</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="10">
@@ -1756,6 +3271,33 @@
       <c r="C3" s="10">
         <v>774644000</v>
       </c>
+      <c r="D3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="10">
+        <v>782500</v>
+      </c>
+      <c r="I3" s="8">
+        <v>149500</v>
+      </c>
+      <c r="J3" s="9">
+        <v>633000</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="10">
@@ -1767,6 +3309,33 @@
       <c r="C4" s="10">
         <v>881814000</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="10">
+        <v>471700</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="10">
@@ -1778,6 +3347,33 @@
       <c r="C5" s="10">
         <v>241162910</v>
       </c>
+      <c r="D5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="10">
+        <v>449400</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="10">
@@ -1789,6 +3385,33 @@
       <c r="C6" s="10">
         <v>241170500</v>
       </c>
+      <c r="D6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="10">
+        <v>374700</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>21000</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="10">
@@ -1800,6 +3423,33 @@
       <c r="C7" s="10">
         <v>241163000</v>
       </c>
+      <c r="D7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="10">
+        <v>364000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>20100</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="10">
@@ -1811,6 +3461,33 @@
       <c r="C8" s="10">
         <v>241170600</v>
       </c>
+      <c r="D8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="10">
+        <v>330200</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>20100</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="10">
@@ -1822,6 +3499,33 @@
       <c r="C9" s="10">
         <v>241163100</v>
       </c>
+      <c r="D9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="10">
+        <v>450900</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="10">
@@ -1833,6 +3537,33 @@
       <c r="C10" s="10">
         <v>241170700</v>
       </c>
+      <c r="D10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="10">
+        <v>387000</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="10">
@@ -1844,6 +3575,33 @@
       <c r="C11" s="10">
         <v>241163200</v>
       </c>
+      <c r="D11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="10">
+        <v>444600</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="10">
@@ -1855,6 +3613,33 @@
       <c r="C12" s="10">
         <v>241170800</v>
       </c>
+      <c r="D12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="10">
+        <v>366500</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="10">
@@ -1866,6 +3651,33 @@
       <c r="C13" s="10">
         <v>241163300</v>
       </c>
+      <c r="D13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="10">
+        <v>365200</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="10">
@@ -1877,6 +3689,33 @@
       <c r="C14" s="10">
         <v>241170900</v>
       </c>
+      <c r="D14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="10">
+        <v>356600</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>27000</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="10">
@@ -1888,6 +3727,33 @@
       <c r="C15" s="10">
         <v>241163400</v>
       </c>
+      <c r="D15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="10">
+        <v>403400</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="10">
@@ -1899,6 +3765,33 @@
       <c r="C16" s="10">
         <v>241171000</v>
       </c>
+      <c r="D16" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="10">
+        <v>423900</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="10">
@@ -1910,6 +3803,33 @@
       <c r="C17" s="10">
         <v>881814100</v>
       </c>
+      <c r="D17" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="10">
+        <v>544500</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="10">
@@ -1921,6 +3841,33 @@
       <c r="C18" s="10">
         <v>881814200</v>
       </c>
+      <c r="D18" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="10">
+        <v>505700</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="10">
@@ -1932,6 +3879,33 @@
       <c r="C19" s="10">
         <v>881814210</v>
       </c>
+      <c r="D19" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="10">
+        <v>583500</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="10">
@@ -1942,6 +3916,33 @@
       </c>
       <c r="C20" s="10">
         <v>241171200</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="10">
+        <v>482600</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2035,6 +4036,33 @@
       <c r="C2" s="10">
         <v>774068000</v>
       </c>
+      <c r="D2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1046200</v>
+      </c>
+      <c r="I2" s="8">
+        <v>159100</v>
+      </c>
+      <c r="J2" s="9">
+        <v>887100</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="10">
@@ -2046,6 +4074,33 @@
       <c r="C3" s="10">
         <v>241171300</v>
       </c>
+      <c r="D3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="10">
+        <v>441800</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>24000</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="10">
@@ -2057,6 +4112,33 @@
       <c r="C4" s="10">
         <v>241171400</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="10">
+        <v>410800</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>135100</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="10">
@@ -2068,6 +4150,33 @@
       <c r="C5" s="10">
         <v>774068500</v>
       </c>
+      <c r="D5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="10">
+        <v>470800</v>
+      </c>
+      <c r="I5" s="8">
+        <v>85308</v>
+      </c>
+      <c r="J5" s="9">
+        <v>385492</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="7">
@@ -2079,13 +4188,33 @@
       <c r="C6" s="7">
         <v>241171500</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="D6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="7">
+        <v>519400</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>16500</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7">
@@ -2097,13 +4226,33 @@
       <c r="C7" s="7">
         <v>241171605</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+      <c r="D7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="7">
+        <v>463200</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>30000</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="10">
@@ -2115,6 +4264,33 @@
       <c r="C8" s="10">
         <v>774069000</v>
       </c>
+      <c r="D8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="10">
+        <v>142400</v>
+      </c>
+      <c r="I8" s="8">
+        <v>142400</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="10">
@@ -2126,6 +4302,33 @@
       <c r="C9" s="10">
         <v>881815100</v>
       </c>
+      <c r="D9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="10">
+        <v>729300</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="10">
@@ -2137,6 +4340,33 @@
       <c r="C10" s="10">
         <v>241164010</v>
       </c>
+      <c r="D10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="10">
+        <v>555800</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="10">
@@ -2148,6 +4378,33 @@
       <c r="C11" s="10">
         <v>881108150</v>
       </c>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="10">
+        <v>925300</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="10">
@@ -2158,6 +4415,33 @@
       </c>
       <c r="C12" s="10">
         <v>881815125</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1078900</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2246,7 +4530,7 @@
         <v>3201</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C2" s="10">
         <v>241157500</v>
@@ -2257,7 +4541,7 @@
         <v>3202</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C3" s="10">
         <v>241155200</v>
@@ -2268,7 +4552,7 @@
         <v>3203</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C4" s="10">
         <v>241157600</v>
@@ -2279,7 +4563,7 @@
         <v>3204</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C5" s="10">
         <v>241155300</v>
@@ -2290,7 +4574,7 @@
         <v>3205</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C6" s="10">
         <v>241157700</v>
@@ -2301,7 +4585,7 @@
         <v>3206</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C7" s="10">
         <v>241155400</v>
@@ -2312,7 +4596,7 @@
         <v>3207</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C8" s="10">
         <v>241157800</v>
@@ -2323,7 +4607,7 @@
         <v>3208</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C9" s="10">
         <v>241155500</v>
@@ -2334,7 +4618,7 @@
         <v>3209</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C10" s="10">
         <v>241157900</v>
@@ -2345,7 +4629,7 @@
         <v>3210</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10">
         <v>241155600</v>
@@ -2356,7 +4640,7 @@
         <v>3211</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C12" s="10">
         <v>241158000</v>
@@ -2367,7 +4651,7 @@
         <v>3212</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C13" s="10">
         <v>241155700</v>
@@ -2378,7 +4662,7 @@
         <v>3214</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C14" s="10">
         <v>241156545</v>
@@ -2389,7 +4673,7 @@
         <v>3216</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C15" s="10">
         <v>241156550</v>
@@ -2400,7 +4684,7 @@
         <v>3218</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C16" s="10">
         <v>241156555</v>
@@ -2491,7 +4775,7 @@
         <v>3311</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0">
         <v>241158400</v>
@@ -2499,10 +4783,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0">
         <v>241156565</v>
@@ -2594,7 +4878,7 @@
         <v>3200</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C2" s="17">
         <v>774521100</v>
@@ -2612,7 +4896,7 @@
         <v>3201</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C3" s="10">
         <v>241146500</v>
@@ -2623,7 +4907,7 @@
         <v>3202</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C4" s="10">
         <v>241073800</v>
@@ -2634,7 +4918,7 @@
         <v>3203</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C5" s="10">
         <v>241146600</v>
@@ -2645,7 +4929,7 @@
         <v>3204</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C6" s="10">
         <v>241073900</v>
@@ -2656,7 +4940,7 @@
         <v>3205</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C7" s="10">
         <v>241146700</v>
@@ -2667,7 +4951,7 @@
         <v>3206</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C8" s="10">
         <v>241074000</v>
@@ -2678,7 +4962,7 @@
         <v>3207</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C9" s="10">
         <v>241146800</v>
@@ -2689,7 +4973,7 @@
         <v>3208</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C10" s="10">
         <v>241074100</v>
@@ -2700,7 +4984,7 @@
         <v>3209</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C11" s="10">
         <v>241146900</v>
@@ -2711,7 +4995,7 @@
         <v>3210</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C12" s="10">
         <v>881810300</v>
@@ -2722,7 +5006,7 @@
         <v>3211</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C13" s="10">
         <v>241147000</v>
@@ -2733,7 +5017,7 @@
         <v>3212</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C14" s="10">
         <v>241074300</v>
@@ -2744,7 +5028,7 @@
         <v>3213</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C15" s="10">
         <v>241147100</v>
@@ -2755,7 +5039,7 @@
         <v>3214</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C16" s="10">
         <v>241074400</v>
@@ -2766,7 +5050,7 @@
         <v>3215</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C17" s="10">
         <v>241147200</v>
@@ -2777,7 +5061,7 @@
         <v>3216</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C18" s="10">
         <v>241074500</v>
@@ -2788,7 +5072,7 @@
         <v>3217</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C19" s="10">
         <v>241147300</v>
@@ -2799,7 +5083,7 @@
         <v>3218</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C20" s="10">
         <v>241074600</v>
@@ -2810,7 +5094,7 @@
         <v>3219</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C21" s="10">
         <v>241147400</v>
@@ -2821,7 +5105,7 @@
         <v>3220</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C22" s="10">
         <v>241074700</v>
@@ -2832,7 +5116,7 @@
         <v>3221</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C23" s="10">
         <v>241147500</v>
@@ -2843,7 +5127,7 @@
         <v>3222</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C24" s="10">
         <v>241074800</v>
@@ -2854,7 +5138,7 @@
         <v>3223</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C25" s="10">
         <v>241147600</v>
@@ -2865,7 +5149,7 @@
         <v>3224</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C26" s="10">
         <v>241074900</v>
@@ -2876,7 +5160,7 @@
         <v>3225</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C27" s="10">
         <v>241147700</v>
@@ -2887,7 +5171,7 @@
         <v>3226</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C28" s="10">
         <v>241075000</v>
@@ -2898,7 +5182,7 @@
         <v>3227</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C29" s="10">
         <v>241147800</v>
@@ -2909,7 +5193,7 @@
         <v>3229</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C30" s="10">
         <v>241147900</v>
@@ -2920,7 +5204,7 @@
         <v>3231</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C31" s="10">
         <v>871530220</v>
@@ -2931,7 +5215,7 @@
         <v>3233</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C32" s="10">
         <v>871530230</v>
@@ -2942,7 +5226,7 @@
         <v>3235</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C33" s="10">
         <v>871530240</v>
@@ -2950,10 +5234,10 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C34" s="10">
         <v>881810200</v>
@@ -2961,10 +5245,10 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C35" s="10">
         <v>774531000</v>
@@ -3053,10 +5337,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C2" s="0">
         <v>881811000</v>
@@ -3067,7 +5351,7 @@
         <v>3305</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C3" s="0">
         <v>881811100</v>
@@ -3078,7 +5362,7 @@
         <v>3307</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C4" s="0">
         <v>881811200</v>
@@ -3089,7 +5373,7 @@
         <v>3309</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0">
         <v>881811300</v>
@@ -3100,7 +5384,7 @@
         <v>3311</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C6" s="0">
         <v>881811400</v>
@@ -3111,7 +5395,7 @@
         <v>3315</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C7" s="0">
         <v>881811500</v>
@@ -3122,7 +5406,7 @@
         <v>3319</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C8" s="0">
         <v>881811600</v>
@@ -3133,7 +5417,7 @@
         <v>3321</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C9" s="0">
         <v>881811650</v>
@@ -3144,7 +5428,7 @@
         <v>3323</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C10" s="0">
         <v>241149200</v>
@@ -3155,7 +5439,7 @@
         <v>3325</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C11" s="0">
         <v>241149300</v>
@@ -3166,7 +5450,7 @@
         <v>3327</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C12" s="0">
         <v>241149400</v>
@@ -3177,7 +5461,7 @@
         <v>3329</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C13" s="0">
         <v>241149500</v>
@@ -3188,7 +5472,7 @@
         <v>3331</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C14" s="0">
         <v>241149600</v>
@@ -3279,7 +5563,7 @@
         <v>3409</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C2" s="0">
         <v>881813600</v>
@@ -3290,7 +5574,7 @@
         <v>3416</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C3" s="0">
         <v>241076500</v>
@@ -3301,7 +5585,7 @@
         <v>3418</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C4" s="0">
         <v>241076500</v>
@@ -3309,10 +5593,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0">
         <v>774531900</v>
@@ -3323,7 +5607,7 @@
         <v>3401</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C6" s="0">
         <v>774532000</v>
@@ -3334,7 +5618,7 @@
         <v>3421</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C7" s="0">
         <v>774535000</v>
@@ -3345,7 +5629,7 @@
         <v>3404</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C8" s="0">
         <v>774531914</v>
@@ -3356,7 +5640,7 @@
         <v>3406</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C9" s="0">
         <v>774531916</v>
@@ -3367,7 +5651,7 @@
         <v>3408</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C10" s="0">
         <v>774531918</v>
@@ -3378,7 +5662,7 @@
         <v>3410</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C11" s="0">
         <v>774531920</v>
@@ -3389,7 +5673,7 @@
         <v>3412</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C12" s="0">
         <v>241076350</v>
@@ -3400,7 +5684,7 @@
         <v>3414</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C13" s="0">
         <v>241076450</v>
@@ -3411,7 +5695,7 @@
         <v>3420</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C14" s="0">
         <v>774531924</v>
@@ -3422,7 +5706,7 @@
         <v>3422</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C15" s="0">
         <v>774531926</v>
@@ -3433,7 +5717,7 @@
         <v>3424</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C16" s="0">
         <v>774531928</v>
@@ -3444,7 +5728,7 @@
         <v>3426</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C17" s="0">
         <v>774531930</v>
@@ -3455,7 +5739,7 @@
         <v>3428</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C18" s="0">
         <v>774531932</v>
@@ -3466,7 +5750,7 @@
         <v>3430</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C19" s="0">
         <v>774531934</v>
@@ -3477,7 +5761,7 @@
         <v>3432</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C20" s="0">
         <v>774531936</v>
@@ -3488,7 +5772,7 @@
         <v>3405</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C21" s="0">
         <v>774533000</v>
@@ -3499,7 +5783,7 @@
         <v>3411</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C22" s="0">
         <v>774534000</v>
@@ -3510,7 +5794,7 @@
         <v>3421</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C23" s="0">
         <v>774535000</v>
@@ -3518,10 +5802,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C24" s="0">
         <v>774536000</v>
@@ -3763,10 +6047,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C2" s="0">
         <v>881111100</v>
@@ -3774,10 +6058,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C3" s="0">
         <v>783423800</v>
@@ -3866,7 +6150,7 @@
         <v>3202</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C2" s="10">
         <v>241071200</v>
@@ -3877,7 +6161,7 @@
         <v>3203</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C3" s="10">
         <v>241072500</v>
@@ -3888,7 +6172,7 @@
         <v>3204</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C4" s="10">
         <v>241071300</v>
@@ -3899,7 +6183,7 @@
         <v>3205</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C5" s="10">
         <v>241072600</v>
@@ -3910,7 +6194,7 @@
         <v>3206</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C6" s="10">
         <v>241071400</v>
@@ -3921,7 +6205,7 @@
         <v>3207</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C7" s="10">
         <v>241072700</v>
@@ -3932,7 +6216,7 @@
         <v>3208</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C8" s="10">
         <v>241071500</v>
@@ -3943,7 +6227,7 @@
         <v>3209</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C9" s="10">
         <v>241072800</v>
@@ -3954,7 +6238,7 @@
         <v>3210</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C10" s="10">
         <v>241071600</v>
@@ -3965,7 +6249,7 @@
         <v>3211</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C11" s="10">
         <v>241072900</v>
@@ -3976,7 +6260,7 @@
         <v>3212</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C12" s="10">
         <v>241071700</v>
@@ -3987,7 +6271,7 @@
         <v>3213</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C13" s="10">
         <v>241073000</v>
@@ -3998,7 +6282,7 @@
         <v>3214</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C14" s="10">
         <v>241071800</v>
@@ -4009,7 +6293,7 @@
         <v>3215</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C15" s="10">
         <v>241073100</v>
@@ -4020,7 +6304,7 @@
         <v>3216</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C16" s="10">
         <v>241071900</v>
@@ -4031,7 +6315,7 @@
         <v>3217</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C17" s="10">
         <v>241073200</v>
@@ -4042,7 +6326,7 @@
         <v>3218</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C18" s="10">
         <v>241072000</v>
@@ -4053,7 +6337,7 @@
         <v>3219</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C19" s="10">
         <v>241073300</v>
@@ -4064,7 +6348,7 @@
         <v>3220</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C20" s="10">
         <v>241072100</v>
@@ -4075,7 +6359,7 @@
         <v>3221</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C21" s="10">
         <v>241073400</v>
@@ -4086,7 +6370,7 @@
         <v>3222</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C22" s="10">
         <v>241072200</v>
@@ -4097,7 +6381,7 @@
         <v>3223</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C23" s="10">
         <v>241073500</v>
@@ -4108,7 +6392,7 @@
         <v>3201</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C24" s="10">
         <v>241072400</v>
@@ -4200,7 +6484,7 @@
         <v>3207</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C2" s="10">
         <v>241070100</v>
@@ -4211,7 +6495,7 @@
         <v>3209</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C3" s="10">
         <v>241070200</v>
@@ -4222,7 +6506,7 @@
         <v>3211</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C4" s="10">
         <v>241070300</v>
@@ -4233,7 +6517,7 @@
         <v>3213</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C5" s="10">
         <v>241070400</v>
@@ -4244,7 +6528,7 @@
         <v>3214</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C6" s="10">
         <v>241069400</v>
@@ -4255,7 +6539,7 @@
         <v>3215</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C7" s="10">
         <v>241070500</v>
@@ -4266,7 +6550,7 @@
         <v>3216</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C8" s="10">
         <v>241069500</v>
@@ -4277,7 +6561,7 @@
         <v>3217</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C9" s="10">
         <v>241070600</v>
@@ -4288,7 +6572,7 @@
         <v>3218</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C10" s="10">
         <v>241069600</v>
@@ -4299,7 +6583,7 @@
         <v>3219</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C11" s="10">
         <v>241070700</v>
@@ -4310,7 +6594,7 @@
         <v>3221</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C12" s="10">
         <v>241070800</v>
@@ -4321,7 +6605,7 @@
         <v>3223</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C13" s="10">
         <v>241070900</v>
@@ -4332,7 +6616,7 @@
         <v>3205</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C14" s="10">
         <v>241070000</v>
@@ -4343,7 +6627,7 @@
         <v>3200</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C15" s="10">
         <v>241068900</v>
@@ -4354,7 +6638,7 @@
         <v>3202</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C16" s="10">
         <v>774304800</v>
@@ -4365,7 +6649,7 @@
         <v>3204</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C17" s="10">
         <v>241069100</v>
@@ -4376,7 +6660,7 @@
         <v>3206</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="C18" s="10">
         <v>241069200</v>
@@ -4466,7 +6750,7 @@
         <v>3201</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C2" s="0">
         <v>774545810</v>
@@ -4474,10 +6758,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>92</v>
+        <v>394</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C3" s="0">
         <v>774545815</v>
@@ -4488,7 +6772,7 @@
         <v>3211</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C4" s="0">
         <v>774546050</v>
@@ -4496,10 +6780,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>93</v>
+        <v>395</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C5" s="0">
         <v>774546200</v>
@@ -4507,10 +6791,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>94</v>
+        <v>396</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C6" s="0">
         <v>241066710</v>
@@ -4521,7 +6805,7 @@
         <v>3200</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C7" s="0">
         <v>774546010</v>
@@ -4609,7 +6893,7 @@
         <v>3310</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C2" s="0">
         <v>774547006</v>
@@ -4620,7 +6904,7 @@
         <v>3300</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C3" s="0">
         <v>774547005</v>
@@ -4631,7 +6915,7 @@
         <v>3310</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C4" s="0">
         <v>881810810</v>
@@ -4642,7 +6926,7 @@
         <v>3312</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C5" s="0">
         <v>774547201</v>
@@ -4653,7 +6937,7 @@
         <v>3314</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C6" s="0">
         <v>774547203</v>
@@ -4664,7 +6948,7 @@
         <v>3316</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C7" s="0">
         <v>774547205</v>
@@ -4752,7 +7036,7 @@
         <v>3408</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C2" s="0">
         <v>881810205</v>
@@ -4763,7 +7047,7 @@
         <v>3414</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C3" s="0">
         <v>241065600</v>
@@ -4774,7 +7058,7 @@
         <v>3416</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C4" s="0">
         <v>241065700</v>
@@ -4785,7 +7069,7 @@
         <v>3417</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C5" s="0">
         <v>241067800</v>
@@ -4796,7 +7080,7 @@
         <v>3418</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C6" s="0">
         <v>241065800</v>
@@ -4807,7 +7091,7 @@
         <v>3421</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C7" s="0">
         <v>241068000</v>
@@ -4815,10 +7099,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>117</v>
+        <v>419</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C8" s="0">
         <v>881108120</v>
@@ -4826,10 +7110,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>118</v>
+        <v>420</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C9" s="0">
         <v>881108130</v>
@@ -4840,7 +7124,7 @@
         <v>3419</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C10" s="0">
         <v>241067902</v>
@@ -4848,10 +7132,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>119</v>
+        <v>421</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C11" s="0">
         <v>774548000</v>
@@ -4862,7 +7146,7 @@
         <v>3410</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C12" s="0">
         <v>241065400</v>
@@ -4873,7 +7157,7 @@
         <v>3412</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C13" s="0">
         <v>241065500</v>
@@ -4884,7 +7168,7 @@
         <v>3420</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C14" s="0">
         <v>241065900</v>
@@ -4975,7 +7259,7 @@
         <v>3503</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C2" s="0">
         <v>241068400</v>
@@ -4986,7 +7270,7 @@
         <v>3505</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C3" s="0">
         <v>241068500</v>
@@ -5071,10 +7355,10 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>101</v>
+        <v>403</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C2" s="10">
         <v>774513500</v>
@@ -5082,10 +7366,10 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>102</v>
+        <v>404</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C3" s="10">
         <v>774513000</v>
@@ -5174,7 +7458,7 @@
         <v>3306</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C2" s="10">
         <v>241061700</v>
@@ -5185,7 +7469,7 @@
         <v>3308</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C3" s="10">
         <v>241061800</v>
@@ -5196,7 +7480,7 @@
         <v>3310</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C4" s="10">
         <v>774514010</v>
@@ -5207,7 +7491,7 @@
         <v>3312</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C5" s="10">
         <v>241062000</v>
@@ -5218,7 +7502,7 @@
         <v>3314</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C6" s="10">
         <v>881810305</v>
@@ -5229,7 +7513,7 @@
         <v>3316</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C7" s="10">
         <v>241062200</v>
@@ -5240,7 +7524,7 @@
         <v>3318</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C8" s="10">
         <v>241062300</v>
@@ -5251,7 +7535,7 @@
         <v>3320</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C9" s="10">
         <v>774513100</v>
@@ -5259,10 +7543,10 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>99</v>
+        <v>401</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C10" s="10">
         <v>774514000</v>
@@ -5270,10 +7554,10 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>100</v>
+        <v>402</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="C11" s="10">
         <v>241061410</v>
@@ -5362,10 +7646,10 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>97</v>
+        <v>399</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C2" s="10">
         <v>774520500</v>
@@ -5602,10 +7886,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>96</v>
+        <v>398</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C2" s="0">
         <v>774521000</v>
@@ -5693,7 +7977,7 @@
         <v>3401</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C2" s="0">
         <v>882658700</v>
@@ -5704,7 +7988,7 @@
         <v>3433</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C3" s="0">
         <v>241057700</v>
@@ -5715,7 +7999,7 @@
         <v>3435</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C4" s="0">
         <v>241057800</v>
@@ -5726,7 +8010,7 @@
         <v>3437</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C5" s="0">
         <v>241057900</v>
@@ -5737,7 +8021,7 @@
         <v>3439</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C6" s="0">
         <v>241058000</v>
@@ -5748,7 +8032,7 @@
         <v>3400</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C7" s="0">
         <v>774522040</v>
@@ -5840,7 +8124,7 @@
         <v>3501</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C2" s="10">
         <v>241058200</v>
@@ -5851,7 +8135,7 @@
         <v>3503</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C3" s="10">
         <v>241058300</v>
@@ -5862,7 +8146,7 @@
         <v>3505</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C4" s="10">
         <v>871114500</v>
@@ -5873,7 +8157,7 @@
         <v>3507</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C5" s="10">
         <v>871114550</v>
@@ -5884,7 +8168,7 @@
         <v>3509</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C6" s="10">
         <v>871530020</v>
@@ -5895,7 +8179,7 @@
         <v>3511</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C7" s="10">
         <v>871114600</v>
@@ -5906,7 +8190,7 @@
         <v>3512</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C8" s="10">
         <v>881111110</v>
@@ -5917,7 +8201,7 @@
         <v>3513</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C9" s="10">
         <v>871114650</v>
@@ -5928,7 +8212,7 @@
         <v>3515</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C10" s="10">
         <v>241058900</v>
@@ -5939,7 +8223,7 @@
         <v>3517</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C11" s="10">
         <v>871114700</v>
@@ -5950,7 +8234,7 @@
         <v>3525</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C12" s="10">
         <v>871530030</v>
@@ -5958,10 +8242,10 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>103</v>
+        <v>405</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C13" s="10">
         <v>881111127</v>
@@ -5969,10 +8253,10 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>104</v>
+        <v>406</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C14" s="10">
         <v>882930580</v>
@@ -5980,10 +8264,10 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C15" s="10">
         <v>883604000</v>
@@ -5991,10 +8275,10 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>106</v>
+        <v>408</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C16" s="10">
         <v>241059400</v>
@@ -6002,10 +8286,10 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C17" s="10">
         <v>783254400</v>
@@ -6091,10 +8375,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>108</v>
+        <v>410</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
       <c r="C2" s="0">
         <v>774528000</v>
@@ -6180,7 +8464,7 @@
         <v>3301</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
       <c r="C2" s="0">
         <v>774530510</v>
@@ -6264,10 +8548,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>418</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
       <c r="C2" s="0">
         <v>883072000</v>
@@ -6351,10 +8635,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>115</v>
+        <v>417</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
       <c r="C2" s="0">
         <v>883073000</v>
@@ -6365,7 +8649,7 @@
         <v>3501</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
       <c r="C3" s="0">
         <v>774688700</v>
@@ -6454,7 +8738,7 @@
         <v>406</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C2" s="10">
         <v>241207000</v>
@@ -6465,7 +8749,7 @@
         <v>408</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C3" s="10">
         <v>241207100</v>
@@ -6476,7 +8760,7 @@
         <v>410</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C4" s="10">
         <v>241207200</v>
@@ -6487,7 +8771,7 @@
         <v>412</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C5" s="10">
         <v>241207300</v>
@@ -6498,7 +8782,7 @@
         <v>414</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C6" s="10">
         <v>241207400</v>
@@ -6509,7 +8793,7 @@
         <v>416</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C7" s="10">
         <v>241207500</v>
@@ -6520,7 +8804,7 @@
         <v>418</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C8" s="10">
         <v>241207600</v>
@@ -6531,7 +8815,7 @@
         <v>420</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C9" s="10">
         <v>241207700</v>
@@ -6542,7 +8826,7 @@
         <v>422</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C10" s="10">
         <v>241207800</v>
@@ -6553,7 +8837,7 @@
         <v>424</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C11" s="10">
         <v>241207900</v>
@@ -6564,7 +8848,7 @@
         <v>426</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C12" s="10">
         <v>241208000</v>
@@ -6575,7 +8859,7 @@
         <v>428</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C13" s="10">
         <v>241208100</v>
@@ -6586,7 +8870,7 @@
         <v>430</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C14" s="10">
         <v>241208200</v>
@@ -6597,7 +8881,7 @@
         <v>432</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C15" s="10">
         <v>241208300</v>
@@ -6605,10 +8889,10 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>113</v>
+        <v>415</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C16" s="10">
         <v>884345034</v>
@@ -6616,10 +8900,10 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>114</v>
+        <v>416</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="C17" s="10">
         <v>241206900</v>
@@ -6710,7 +8994,7 @@
         <v>417</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>111</v>
+        <v>413</v>
       </c>
       <c r="C2" s="10">
         <v>241210226</v>
@@ -6721,7 +9005,7 @@
         <v>419</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>111</v>
+        <v>413</v>
       </c>
       <c r="C3" s="10">
         <v>241210227</v>
@@ -6732,7 +9016,7 @@
         <v>421</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>111</v>
+        <v>413</v>
       </c>
       <c r="C4" s="10">
         <v>241210228</v>
@@ -6743,7 +9027,7 @@
         <v>423</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>111</v>
+        <v>413</v>
       </c>
       <c r="C5" s="10">
         <v>241210229</v>
@@ -6831,7 +9115,7 @@
         <v>417</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C2" s="10">
         <v>241208600</v>
@@ -6842,7 +9126,7 @@
         <v>419</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C3" s="10">
         <v>241208700</v>
@@ -6853,7 +9137,7 @@
         <v>421</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C4" s="10">
         <v>241208800</v>
@@ -6864,7 +9148,7 @@
         <v>423</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C5" s="10">
         <v>241208900</v>
@@ -6875,7 +9159,7 @@
         <v>425</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C6" s="10">
         <v>241209000</v>
@@ -6886,7 +9170,7 @@
         <v>427</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C7" s="10">
         <v>241209100</v>
@@ -6897,7 +9181,7 @@
         <v>429</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C8" s="10">
         <v>241209200</v>
@@ -6908,7 +9192,7 @@
         <v>431</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C9" s="10">
         <v>241209300</v>
@@ -6919,7 +9203,7 @@
         <v>433</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C10" s="10">
         <v>241209400</v>
@@ -6930,7 +9214,7 @@
         <v>435</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C11" s="10">
         <v>241209500</v>
@@ -6941,7 +9225,7 @@
         <v>437</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C12" s="10">
         <v>241209600</v>
@@ -6952,7 +9236,7 @@
         <v>439</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C13" s="10">
         <v>241209700</v>
@@ -7392,7 +9676,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>392</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>40</v>
@@ -9185,6 +11469,33 @@
       <c r="C2" s="10">
         <v>774296000</v>
       </c>
+      <c r="D2" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="10">
+        <v>317100</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="10">
@@ -9196,6 +11507,33 @@
       <c r="C3" s="10">
         <v>241200800</v>
       </c>
+      <c r="D3" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="10">
+        <v>427000</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="10">
@@ -9207,6 +11545,33 @@
       <c r="C4" s="10">
         <v>241200900</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10">
+        <v>382200</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="10">
@@ -9218,6 +11583,33 @@
       <c r="C5" s="10">
         <v>241201000</v>
       </c>
+      <c r="D5" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="10">
+        <v>436400</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>15000</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="10">
@@ -9229,6 +11621,33 @@
       <c r="C6" s="10">
         <v>241201210</v>
       </c>
+      <c r="D6" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="10">
+        <v>641700</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>550258</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="10">
@@ -9240,16 +11659,70 @@
       <c r="C7" s="10">
         <v>871115450</v>
       </c>
+      <c r="D7" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="10">
+        <v>522500</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>84</v>
+        <v>231</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="10">
         <v>881108170</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2318700</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -10995,10 +13468,37 @@
         <v>3202</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C2" s="10">
         <v>241179320</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="10">
+        <v>333100</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>190005</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="3">
@@ -11006,10 +13506,37 @@
         <v>3204</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C3" s="10">
         <v>241179410</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="10">
+        <v>290800</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>164616</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4">
@@ -11017,10 +13544,37 @@
         <v>3206</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C4" s="10">
         <v>241179500</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="10">
+        <v>285300</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -11028,28 +13582,75 @@
         <v>3208</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C5" s="7">
         <v>241179600</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="D5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="7">
+        <v>263700</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>30000</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="10">
         <v>3212</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C6" s="10">
         <v>241179700</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" s="10">
+        <v>175300</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -11057,10 +13658,37 @@
         <v>3213</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C7" s="10">
         <v>241187500</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="10">
+        <v>30300</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -11068,10 +13696,37 @@
         <v>3214</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C8" s="10">
         <v>241179800</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="10">
+        <v>175300</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>54400</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -11079,10 +13734,37 @@
         <v>3215</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C9" s="10">
         <v>241187600</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="10">
+        <v>333200</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -11090,10 +13772,37 @@
         <v>3217</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C10" s="10">
         <v>241187700</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="10">
+        <v>258800</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>96200</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -11101,10 +13810,37 @@
         <v>3219</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C11" s="10">
         <v>241187800</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="10">
+        <v>334100</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -11112,10 +13848,37 @@
         <v>3221</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C12" s="10">
         <v>241187900</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="10">
+        <v>344500</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -11204,10 +13967,37 @@
         <v>3301</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C2" s="10">
         <v>241188200</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="10">
+        <v>319400</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -11215,10 +14005,37 @@
         <v>3302</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C3" s="10">
         <v>241180100</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="10">
+        <v>311200</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -11226,10 +14043,37 @@
         <v>3303</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C4" s="10">
         <v>241188300</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="10">
+        <v>31200</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -11237,10 +14081,37 @@
         <v>3304</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C5" s="10">
         <v>241180200</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="10">
+        <v>351200</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -11248,10 +14119,37 @@
         <v>3305</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C6" s="10">
         <v>241188400</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="10">
+        <v>298700</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -11259,10 +14157,37 @@
         <v>3306</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C7" s="10">
         <v>241180300</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="10">
+        <v>283700</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>21000</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -11270,10 +14195,37 @@
         <v>3307</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C8" s="10">
         <v>241188500</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="10">
+        <v>291300</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -11281,10 +14233,37 @@
         <v>3309</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C9" s="10">
         <v>241188600</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="10">
+        <v>321900</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -11292,10 +14271,37 @@
         <v>3311</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C10" s="10">
         <v>241188700</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="10">
+        <v>270100</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -11303,10 +14309,37 @@
         <v>3313</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C11" s="10">
         <v>241188800</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="10">
+        <v>240900</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -11314,10 +14347,37 @@
         <v>3319</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C12" s="10">
         <v>241189000</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="10">
+        <v>328500</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>108000</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -11325,10 +14385,37 @@
         <v>3320</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C13" s="10">
         <v>241180600</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="10">
+        <v>288000</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>45900</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -11336,10 +14423,37 @@
         <v>3321</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C14" s="10">
         <v>241189100</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="10">
+        <v>326000</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -11347,32 +14461,113 @@
         <v>3322</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C15" s="10">
         <v>241180700</v>
       </c>
+      <c r="D15" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H15" s="10">
+        <v>271900</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>51400</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C16" s="10">
         <v>881108800</v>
       </c>
+      <c r="D16" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1124900</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C17" s="10">
         <v>881108900</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1787100</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -11461,10 +14656,37 @@
         <v>3401</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C2" s="10">
         <v>882930650</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="10">
+        <v>150100</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -11472,10 +14694,37 @@
         <v>3403</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C3" s="10">
         <v>881813700</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H3" s="10">
+        <v>484000</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -11483,10 +14732,37 @@
         <v>3404</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C4" s="10">
         <v>241180900</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4" s="10">
+        <v>384700</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -11494,10 +14770,37 @@
         <v>3406</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C5" s="10">
         <v>241181000</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H5" s="10">
+        <v>405200</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>314808</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -11505,10 +14808,37 @@
         <v>3408</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C6" s="10">
         <v>241181100</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" s="10">
+        <v>379200</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>179700</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -11516,10 +14846,37 @@
         <v>3409</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C7" s="10">
         <v>241189700</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="10">
+        <v>393100</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>161500</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -11527,10 +14884,37 @@
         <v>3410</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C8" s="10">
         <v>241181200</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="10">
+        <v>367300</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -11538,10 +14922,37 @@
         <v>3411</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C9" s="10">
         <v>241189800</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="10">
+        <v>395800</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -11549,10 +14960,37 @@
         <v>3412</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C10" s="10">
         <v>241181300</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="10">
+        <v>380300</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -11560,10 +14998,37 @@
         <v>3413</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C11" s="10">
         <v>241189900</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="10">
+        <v>330000</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -11571,10 +15036,37 @@
         <v>3415</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C12" s="10">
         <v>241190000</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" s="10">
+        <v>241100</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -11582,10 +15074,37 @@
         <v>3416</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C13" s="10">
         <v>241181500</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H13" s="10">
+        <v>531600</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>345971</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -11593,10 +15112,37 @@
         <v>3417</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C14" s="10">
         <v>241190100</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="10">
+        <v>409900</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -11604,10 +15150,37 @@
         <v>3418</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C15" s="10">
         <v>241181600</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" s="10">
+        <v>390900</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -11615,10 +15188,37 @@
         <v>3419</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C16" s="10">
         <v>241190200</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="10">
+        <v>409900</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -11626,10 +15226,37 @@
         <v>3420</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C17" s="10">
         <v>241181700</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="10">
+        <v>380300</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>22500</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -11637,21 +15264,75 @@
         <v>3422</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C18" s="10">
         <v>241181800</v>
       </c>
+      <c r="D18" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H18" s="10">
+        <v>380700</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>9300</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C19" s="10">
         <v>241189600</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="10">
+        <v>345100</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>200500</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -11659,10 +15340,37 @@
         <v>3414</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C20" s="10">
         <v>774518800</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="H20" s="10">
+        <v>511200</v>
+      </c>
+      <c r="I20" s="8">
+        <v>26000</v>
+      </c>
+      <c r="J20" s="9">
+        <v>485200</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -11751,10 +15459,37 @@
         <v>3500</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C2" s="10">
         <v>881815200</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="10">
+        <v>530100</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -11762,10 +15497,37 @@
         <v>3501</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C3" s="10">
         <v>241190300</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3" s="10">
+        <v>346400</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -11773,10 +15535,37 @@
         <v>3502</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C4" s="10">
         <v>241182000</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4" s="10">
+        <v>525600</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -11784,10 +15573,37 @@
         <v>3503</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C5" s="10">
         <v>241190400</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" s="10">
+        <v>319500</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -11795,10 +15611,37 @@
         <v>3504</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C6" s="10">
         <v>241182110</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" s="10">
+        <v>535700</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -11806,10 +15649,37 @@
         <v>3505</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C7" s="10">
         <v>241190500</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="10">
+        <v>391300</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>17100</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -11817,10 +15687,37 @@
         <v>3506</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C8" s="10">
         <v>774519000</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H8" s="10">
+        <v>43800</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -11828,10 +15725,37 @@
         <v>3507</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C9" s="10">
         <v>881815310</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H9" s="10">
+        <v>352000</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -11839,10 +15763,37 @@
         <v>3508</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C10" s="10">
         <v>241182300</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="10">
+        <v>479700</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -11850,10 +15801,37 @@
         <v>3509</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C11" s="10">
         <v>241190700</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="10">
+        <v>373700</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>46100</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -11861,10 +15839,37 @@
         <v>3510</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C12" s="10">
         <v>881815300</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H12" s="10">
+        <v>623400</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -11872,10 +15877,37 @@
         <v>3511</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C13" s="10">
         <v>241190800</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H13" s="10">
+        <v>284300</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>71900</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -11883,10 +15915,37 @@
         <v>3513</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C14" s="10">
         <v>241190900</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H14" s="10">
+        <v>312000</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -11894,10 +15953,37 @@
         <v>3515</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C15" s="10">
         <v>241191000</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10">
+        <v>390400</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -11905,10 +15991,37 @@
         <v>3517</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C16" s="10">
         <v>241191100</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H16" s="10">
+        <v>402700</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -11916,10 +16029,37 @@
         <v>3519</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C17" s="10">
         <v>241191200</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H17" s="10">
+        <v>352200</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -11927,10 +16067,37 @@
         <v>3521</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C18" s="10">
         <v>241191300</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="10">
+        <v>262200</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -11938,10 +16105,37 @@
         <v>3523</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C19" s="10">
         <v>241191400</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H19" s="10">
+        <v>315300</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -11949,10 +16143,37 @@
         <v>3525</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C20" s="10">
         <v>241191500</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H20" s="10">
+        <v>297700</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -11960,10 +16181,37 @@
         <v>3527</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C21" s="10">
         <v>241191600</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H21" s="10">
+        <v>308800</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
